--- a/Question_Sets/Role-specific skills/Financial Math.xlsx
+++ b/Question_Sets/Role-specific skills/Financial Math.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your company wants to determine the total cost (y) function as a function of the number of units produced (x). In this regard, the following estimates were provided by the company’s accountant:Fixed expenditure for the year of $100,000Raw material cost for each unit produced of $4Labor cost per unit of $1Packing and shipping cost per unit of $2  Which of the following best describes the total cost (y) function of your company?', 'ques_type': 2, 'options': [' y = 4x + x + 2x + 100,000', 'y + 100,000 = 4x + x + 2x', 'y = 4x + 100,000 (x+2x)', 'y + 100,000 (x+2x) = 4x'], 'score': 'y = 4x + x + 2x + 100,000'}, {'title': 'Your company has limited materials, as shown in the table below, to produce Product-A and Product-B. You need to determine the quantity of these products (the only ones your company manufactures) to maximize profits. You created a graphical representation and determined the optimal solution exists at point B, where lines for these two constraints intersect with each other. How many units of each product should be produced to maximize profit?', 'ques_type': 2, 'options': ['40 units of A and 90 units of B', '60 units of A and 100 units of B', '90 units of A and 40 units of B', '80 units of A and 100 units of B'], 'score': '90 units of A and 40 units of B'}, {'title': 'Your company’s bank offered placement of funds at a 10% annual rate of return, compounded monthly.  What is the effective annual rate of return of these funds?', 'ques_type': 2, 'options': ['10.00%', '10.47%', '11.55%', '12.00%'], 'score': '10.47%'}, {'title': 'Your company is considering investing $50,000 in a five-year project. This project expects annual cash inflows of $20,000 for the first four years and cash inflows of $30,000 for the fifth year. The initial investment is expected to have a residual value of $10,000 at the end of the fifth year, and the required rate of return is 10%. What is the present value of cash inflows associated with the project?', 'ques_type': 2, 'options': ['$78,234', '$82,025', '$88,234', '$92,025'], 'score': '$88,234'}]</t>
+    <t>questions = [
+    {
+        "title": "Your company wants to determine the total cost (y) function as a function of the number of units produced (x). In this regard, the following estimates were provided by the company\u2019s accountant:Fixed expenditure for the year of $100,000Raw material cost for each unit produced of $4Labor cost per unit of $1Packing and shipping cost per unit of $2  Which of the following best describes the total cost (y) function of your company?",
+        "ques_type": 2,
+        "options": [
+            " y = 4x + x + 2x + 100,000",
+            "y + 100,000 = 4x + x + 2x",
+            "y = 4x + 100,000 (x+2x)",
+            "y + 100,000 (x+2x) = 4x"
+        ],
+        "score": "y = 4x + x + 2x + 100,000"
+    },
+    {
+        "title": "Your company has limited materials, as shown in the table below, to produce Product-A and Product-B. You need to determine the quantity of these products (the only ones your company manufactures) to maximize profits. You created a graphical representation and determined the optimal solution exists at point B, where lines for these two constraints intersect with each other. How many units of each product should be produced to maximize profit?",
+        "ques_type": 2,
+        "options": [
+            "40 units of A and 90 units of B",
+            "60 units of A and 100 units of B",
+            "90 units of A and 40 units of B",
+            "80 units of A and 100 units of B"
+        ],
+        "score": "90 units of A and 40 units of B"
+    },
+    {
+        "title": "Your company\u2019s bank offered placement of funds at a 10% annual rate of return, compounded monthly.  What is the effective annual rate of return of these funds?",
+        "ques_type": 2,
+        "options": [
+            "10.00%",
+            "10.47%",
+            "11.55%",
+            "12.00%"
+        ],
+        "score": "10.47%"
+    },
+    {
+        "title": "Your company is considering investing $50,000 in a five-year project. This project expects annual cash inflows of $20,000 for the first four years and cash inflows of $30,000 for the fifth year. The initial investment is expected to have a residual value of $10,000 at the end of the fifth year, and the required rate of return is 10%. What is the present value of cash inflows associated with the project?",
+        "ques_type": 2,
+        "options": [
+            "$78,234",
+            "$82,025",
+            "$88,234",
+            "$92,025"
+        ],
+        "score": "$88,234"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
